--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/33.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/33.xlsx
@@ -479,13 +479,13 @@
         <v>-0.3156774439884265</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.939925521107828</v>
+        <v>-1.941438130930009</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1302912674725253</v>
+        <v>0.1297700303040709</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1480406201935817</v>
+        <v>-0.1474025791778547</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3267087297664107</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.08345992882888</v>
+        <v>-2.084014747103426</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06780996947017848</v>
+        <v>0.06696460162554234</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1208516046446799</v>
+        <v>-0.1202515248793165</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3617353235379626</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.294221520871778</v>
+        <v>-2.295591776005096</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05449287083300024</v>
+        <v>0.05357888072809139</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1434648294766739</v>
+        <v>-0.1432954638981285</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.4131452552516131</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.463297279871142</v>
+        <v>-2.465298275779732</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00119965546674182</v>
+        <v>-2.824497771239613e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1692171577041215</v>
+        <v>-0.1687251214974853</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.4666431493059657</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.534630849448668</v>
+        <v>-2.535471107124986</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.07282478274232922</v>
+        <v>-0.07379133457851077</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1724862053796661</v>
+        <v>-0.1720978325874844</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.5073426053375636</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.335313114342313</v>
+        <v>-2.335169299605358</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1231555605321339</v>
+        <v>-0.1246521098253153</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.148532656400218</v>
+        <v>-0.1478376735089454</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.5283994480386084</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.027083091894623</v>
+        <v>-2.027256107593395</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1719255469127572</v>
+        <v>-0.1738688709217566</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1169985377327719</v>
+        <v>-0.1166320656619538</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.5266506122619865</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.672320606765627</v>
+        <v>-1.67309735234999</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1024988001419576</v>
+        <v>-0.1042128966006844</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07378257428996532</v>
+        <v>-0.07350662520078358</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.4989083060507597</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.239270343002107</v>
+        <v>-1.241368432108743</v>
       </c>
       <c r="F10" t="n">
-        <v>0.009924902858012204</v>
+        <v>0.009285401794194193</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01064425464670955</v>
+        <v>-0.01072163719552771</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.4406218106856342</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9250037517225549</v>
+        <v>-0.9278391651150997</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07460065314099484</v>
+        <v>0.07361366063154055</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01564053921379911</v>
+        <v>-0.01595152945716266</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.3513536860856789</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5589945161492895</v>
+        <v>-0.5623964282011068</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1449574505457032</v>
+        <v>0.1446187193886124</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02071420632970684</v>
+        <v>-0.02123690354625216</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.2348142693728446</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1130111463965002</v>
+        <v>-0.1174015110058627</v>
       </c>
       <c r="F13" t="n">
-        <v>0.009837299972557683</v>
+        <v>0.009238680255285115</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04858405620909273</v>
+        <v>0.04759414360345664</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.09952362390309649</v>
       </c>
       <c r="E14" t="n">
-        <v>0.342744325228741</v>
+        <v>0.3367376873827426</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1631681784634868</v>
+        <v>-0.1635769919289412</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1174151033588015</v>
+        <v>0.1159287744022565</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.04312545268695477</v>
       </c>
       <c r="E15" t="n">
-        <v>0.887961323528231</v>
+        <v>0.8817824000075054</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1830452731731178</v>
+        <v>-0.1836088517362086</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1989748497650523</v>
+        <v>0.1977951309075981</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.184679422474756</v>
       </c>
       <c r="E16" t="n">
-        <v>1.586954966906498</v>
+        <v>1.581161496081772</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5177758984948461</v>
+        <v>-0.5178868621497552</v>
       </c>
       <c r="G16" t="n">
-        <v>0.264322222169853</v>
+        <v>0.2628548738384898</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3269886881802158</v>
       </c>
       <c r="E17" t="n">
-        <v>2.291127400863218</v>
+        <v>2.285592358550583</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6861749252040736</v>
+        <v>-0.6850404678374376</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3746113348609143</v>
+        <v>0.3732768509058237</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4762609528998724</v>
       </c>
       <c r="E18" t="n">
-        <v>3.053577654368559</v>
+        <v>3.047943328785742</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9642133432039081</v>
+        <v>-0.9633796557439992</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4857531156370662</v>
+        <v>0.4844711934132484</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6346492154201042</v>
       </c>
       <c r="E19" t="n">
-        <v>3.681100483648754</v>
+        <v>3.676261884275482</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.204795687479571</v>
+        <v>-1.203221755637571</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6067589813153974</v>
+        <v>0.6046886331224889</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7991507101190507</v>
       </c>
       <c r="E20" t="n">
-        <v>4.340074208855213</v>
+        <v>4.335784587564123</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.464707608430774</v>
+        <v>-1.463459267313047</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7202791804316396</v>
+        <v>0.7168174064080951</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.960823297164026</v>
       </c>
       <c r="E21" t="n">
-        <v>4.862863408430255</v>
+        <v>4.858747532861983</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.73669120699761</v>
+        <v>-1.735339202465428</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8678623015087819</v>
+        <v>0.8644764499859645</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.11251429717186</v>
       </c>
       <c r="E22" t="n">
-        <v>5.379641590015025</v>
+        <v>5.375645438390208</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.956291200158824</v>
+        <v>-1.955394730631006</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9549731507566676</v>
+        <v>0.9515303573583048</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.245572290666322</v>
       </c>
       <c r="E23" t="n">
-        <v>5.725712408858841</v>
+        <v>5.721224221027388</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.203061958267803</v>
+        <v>-2.203805852770121</v>
       </c>
       <c r="G23" t="n">
-        <v>1.065564493402547</v>
+        <v>1.06129531278473</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.355060712362533</v>
       </c>
       <c r="E24" t="n">
-        <v>6.146854520392909</v>
+        <v>6.142972252519184</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.431061608096014</v>
+        <v>-2.432640650106332</v>
       </c>
       <c r="G24" t="n">
-        <v>1.185332238299788</v>
+        <v>1.181041156960607</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.436199229022405</v>
       </c>
       <c r="E25" t="n">
-        <v>6.43492930896965</v>
+        <v>6.431641280668924</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.555334331377753</v>
+        <v>-2.557255754665389</v>
       </c>
       <c r="G25" t="n">
-        <v>1.259223812132586</v>
+        <v>1.255170718632223</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.488880525869751</v>
       </c>
       <c r="E26" t="n">
-        <v>6.597346518650425</v>
+        <v>6.594554906700608</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.604755499206922</v>
+        <v>-2.606747004802922</v>
       </c>
       <c r="G26" t="n">
-        <v>1.321975219031751</v>
+        <v>1.318783553905024</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.513188620344867</v>
       </c>
       <c r="E27" t="n">
-        <v>6.700804066324125</v>
+        <v>6.698551212119852</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.687959989787581</v>
+        <v>-2.690001137018672</v>
       </c>
       <c r="G27" t="n">
-        <v>1.333895051645929</v>
+        <v>1.329895979924931</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.510827598739538</v>
       </c>
       <c r="E28" t="n">
-        <v>6.882623855084985</v>
+        <v>6.880362240592167</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.715465105748165</v>
+        <v>-2.717289435837755</v>
       </c>
       <c r="G28" t="n">
-        <v>1.373271088609646</v>
+        <v>1.369772813383829</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.485025716461887</v>
       </c>
       <c r="E29" t="n">
-        <v>6.845652517326995</v>
+        <v>6.843862498367541</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.736431396333614</v>
+        <v>-2.73803963930575</v>
       </c>
       <c r="G29" t="n">
-        <v>1.358666227556286</v>
+        <v>1.35573153089356</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.440325338109012</v>
       </c>
       <c r="E30" t="n">
-        <v>6.780546052857194</v>
+        <v>6.778572067838286</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.640284309451094</v>
+        <v>-2.641452347923821</v>
       </c>
       <c r="G30" t="n">
-        <v>1.341773471144473</v>
+        <v>1.338981859194655</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.382134663604753</v>
       </c>
       <c r="E31" t="n">
-        <v>6.801710909983007</v>
+        <v>6.800449428432461</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.541731063314757</v>
+        <v>-2.542374944522848</v>
       </c>
       <c r="G31" t="n">
-        <v>1.30385018203121</v>
+        <v>1.30055631353812</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.315192358194293</v>
       </c>
       <c r="E32" t="n">
-        <v>6.7588000965912</v>
+        <v>6.7579328280252</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.408957940047747</v>
+        <v>-2.408990791129793</v>
       </c>
       <c r="G32" t="n">
-        <v>1.257232306536586</v>
+        <v>1.253796813378678</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.24374978736113</v>
       </c>
       <c r="E33" t="n">
-        <v>6.590745641231427</v>
+        <v>6.5906697187307</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.373740850070984</v>
+        <v>-2.373801442066757</v>
       </c>
       <c r="G33" t="n">
-        <v>1.19889754511242</v>
+        <v>1.195816843640603</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.170231095430195</v>
       </c>
       <c r="E34" t="n">
-        <v>6.293971886129052</v>
+        <v>6.293990866754234</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.336973189021676</v>
+        <v>-2.336884126088131</v>
       </c>
       <c r="G34" t="n">
-        <v>1.149343512906979</v>
+        <v>1.145726973785798</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.09645710248171</v>
       </c>
       <c r="E35" t="n">
-        <v>6.097843626077286</v>
+        <v>6.097880127279559</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.298802421757004</v>
+        <v>-2.298517712379277</v>
       </c>
       <c r="G35" t="n">
-        <v>1.088275541456632</v>
+        <v>1.085359825419087</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.024450749101725</v>
       </c>
       <c r="E36" t="n">
-        <v>5.900182315530067</v>
+        <v>5.900744434045067</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.235859018533885</v>
+        <v>-2.235244338287612</v>
       </c>
       <c r="G36" t="n">
-        <v>1.065218462005002</v>
+        <v>1.062559714431457</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9561875023616323</v>
       </c>
       <c r="E37" t="n">
-        <v>5.594943201596603</v>
+        <v>5.595569562227603</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.191012911397578</v>
+        <v>-2.190144912807533</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9605417741753933</v>
+        <v>0.9577603825622122</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8931114166075175</v>
       </c>
       <c r="E38" t="n">
-        <v>5.287408892064231</v>
+        <v>5.28930257443814</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.144399416047227</v>
+        <v>-2.143862848373819</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8865144158701405</v>
+        <v>0.8841841791170502</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.834908176707722</v>
       </c>
       <c r="E39" t="n">
-        <v>4.97227649226677</v>
+        <v>4.97388108511868</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.085337550673789</v>
+        <v>-2.085075472041471</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8060029839931621</v>
+        <v>0.8036712871919809</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7816575132879077</v>
       </c>
       <c r="E40" t="n">
-        <v>4.679986544851577</v>
+        <v>4.682605871126666</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.103933453183648</v>
+        <v>-2.104145160156829</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7651274776400822</v>
+        <v>0.7629315653113554</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7315381965294966</v>
       </c>
       <c r="E41" t="n">
-        <v>4.359541030051298</v>
+        <v>4.362401264261389</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.999769972257994</v>
+        <v>-1.999112220593039</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6856205588496489</v>
+        <v>0.6835531307529222</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6846492441305098</v>
       </c>
       <c r="E42" t="n">
-        <v>3.982839862308309</v>
+        <v>3.985244561514035</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.9096412036062</v>
+        <v>-1.908836717108109</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6058654318837613</v>
+        <v>0.6041776162906708</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6387380016453988</v>
       </c>
       <c r="E43" t="n">
-        <v>3.681341391583754</v>
+        <v>3.684416252863207</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.857307969859714</v>
+        <v>-1.856368428913214</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5656805282776811</v>
+        <v>0.5640146134059544</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.592975317288326</v>
       </c>
       <c r="E44" t="n">
-        <v>3.381005119139561</v>
+        <v>3.383774830368016</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.762808547247785</v>
+        <v>-1.761386460407239</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5163790843919671</v>
+        <v>0.5145365037012404</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.545541652413951</v>
       </c>
       <c r="E45" t="n">
-        <v>3.098783663359274</v>
+        <v>3.101537314058727</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.679888036020807</v>
+        <v>-1.678785699712171</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4218044693033561</v>
+        <v>0.419999849862993</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4960219190287296</v>
       </c>
       <c r="E46" t="n">
-        <v>2.804083176545989</v>
+        <v>2.807139057200261</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.601141802285737</v>
+        <v>-1.60050376127001</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3837877371122754</v>
+        <v>0.382099921519185</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4447189892790109</v>
       </c>
       <c r="E47" t="n">
-        <v>2.475194203635986</v>
+        <v>2.477845650969077</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.480115495934133</v>
+        <v>-1.479278888378043</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3199471343372926</v>
+        <v>0.3183264809563839</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3925910633655644</v>
       </c>
       <c r="E48" t="n">
-        <v>2.182870675114701</v>
+        <v>2.185830192594973</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.376608306625343</v>
+        <v>-1.375267982477889</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2907753734809368</v>
+        <v>0.2896321558257553</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3412773592366883</v>
       </c>
       <c r="E49" t="n">
-        <v>1.903962068452685</v>
+        <v>1.906150680540958</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.290366185991548</v>
+        <v>-1.289430295165275</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2364922455090423</v>
+        <v>0.2356921391552243</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2928130671219618</v>
       </c>
       <c r="E50" t="n">
-        <v>1.769738387407358</v>
+        <v>1.771881738004812</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.169062470502671</v>
+        <v>-1.16822586294658</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1975396224916891</v>
+        <v>0.1972636734025074</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2491462250535777</v>
       </c>
       <c r="E51" t="n">
-        <v>1.496779476715795</v>
+        <v>1.497512420857431</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.093142889871601</v>
+        <v>-1.092500468711601</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1667720290719701</v>
+        <v>0.1663383947889702</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2116013238551537</v>
       </c>
       <c r="E52" t="n">
-        <v>1.338015307358474</v>
+        <v>1.339028580733564</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.010514388262805</v>
+        <v>-1.009902628112714</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1444070124154306</v>
+        <v>0.1437952522653399</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1810671870634879</v>
       </c>
       <c r="E53" t="n">
-        <v>1.095448757727266</v>
+        <v>1.096930706539539</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9377382911714606</v>
+        <v>-0.9367688192390973</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1006829522369878</v>
+        <v>0.1002974995409879</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1570450739182332</v>
       </c>
       <c r="E54" t="n">
-        <v>0.951016420430305</v>
+        <v>0.9521698584221229</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9446749796513678</v>
+        <v>-0.9440033575295498</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04974041429709242</v>
+        <v>0.04929801972554709</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1389866661773856</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7903600287471663</v>
+        <v>0.7913295006795297</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8990017552715619</v>
+        <v>-0.8978629177606531</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02303905481055414</v>
+        <v>0.02198782018509987</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.125708456736865</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6456619626976596</v>
+        <v>0.6460386551051142</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8494783840760297</v>
+        <v>-0.848818442338939</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01618996921610143</v>
+        <v>0.01538840281419255</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1165799708071819</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5026195911832435</v>
+        <v>0.5024954870955163</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8181253113718564</v>
+        <v>-0.8170784568906748</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01199333908270918</v>
+        <v>-0.01241091283670907</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1106855099440651</v>
       </c>
       <c r="E58" t="n">
-        <v>0.393181686529182</v>
+        <v>0.3928049941217276</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8121245137182216</v>
+        <v>-0.8115346542894945</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02715593850679602</v>
+        <v>-0.02788158240797764</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.107543763256387</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2472688604680394</v>
+        <v>0.246858586954494</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7476225091580571</v>
+        <v>-0.7468910250645119</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09282452149159658</v>
+        <v>-0.09275589923132387</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1066267608502981</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1875207724918736</v>
+        <v>0.1870068355638737</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7302815179823345</v>
+        <v>-0.7302318763472436</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.08038491175705445</v>
+        <v>-0.0802900086311454</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1073436332591055</v>
       </c>
       <c r="E61" t="n">
-        <v>0.02938296376555243</v>
+        <v>0.02919607760991612</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.7024179602154329</v>
+        <v>-0.7024135800711602</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1366726857577666</v>
+        <v>-0.1365398213814939</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1092223658073531</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.05756436009615149</v>
+        <v>-0.05786513000287868</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7207897453433371</v>
+        <v>-0.7209065491906097</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1690521722698488</v>
+        <v>-0.1688828066913034</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1119004884538262</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1511257018096718</v>
+        <v>-0.1511622030119446</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7548555874004188</v>
+        <v>-0.7546336600906007</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1845213817930265</v>
+        <v>-0.184049786259663</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1149036375357599</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2644006128466414</v>
+        <v>-0.2642268671238233</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7573551897320545</v>
+        <v>-0.7572997079046</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2173067616743813</v>
+        <v>-0.217376843982745</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1178433340970957</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4170603211358732</v>
+        <v>-0.4169405971924186</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.7387264361401504</v>
+        <v>-0.7389775644117867</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2380248440843758</v>
+        <v>-0.2378277375921031</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1200294234699552</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4426754048427753</v>
+        <v>-0.4420870054621391</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.7691961797493241</v>
+        <v>-0.7693859860011422</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.253997770198917</v>
+        <v>-0.2536400584166443</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1207854291901566</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5286824577339341</v>
+        <v>-0.528267804076116</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8097387951376768</v>
+        <v>-0.8097563157147677</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2693180548168219</v>
+        <v>-0.2686756336568221</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1192193171934085</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5626139753666523</v>
+        <v>-0.5622007817569251</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.7589685428725086</v>
+        <v>-0.7592401118174176</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3203014741032628</v>
+        <v>-0.3199014209263538</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1147906262196112</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.6439328138379031</v>
+        <v>-0.6428596784910853</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.8043585179226782</v>
+        <v>-0.8048213531674963</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3190837939954449</v>
+        <v>-0.3184340725949905</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1074747285324705</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.7534218201751465</v>
+        <v>-0.752132597710874</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.8022253876618606</v>
+        <v>-0.8022385280946788</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3584788115843434</v>
+        <v>-0.3579955356662526</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.09723076656261027</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7817657337639571</v>
+        <v>-0.7804400100974119</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9302832856192808</v>
+        <v>-0.9302993461482808</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4029358159044224</v>
+        <v>-0.4024218789764225</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.08499929775149703</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.8243728571528547</v>
+        <v>-0.8229960318031277</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.997109686740172</v>
+        <v>-0.997011863518081</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4206388990066904</v>
+        <v>-0.4201424826557814</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.07147493408292872</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8748014581647502</v>
+        <v>-0.8739093687812051</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.030920020381345</v>
+        <v>-1.031321533606345</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4537776105260451</v>
+        <v>-0.4531264290774998</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.05773077526997034</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8166769436656749</v>
+        <v>-0.8165586797703113</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.05607372889152</v>
+        <v>-1.05637887894252</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4681459437886776</v>
+        <v>-0.4676290867644959</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.04430601307893146</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.8000601363430431</v>
+        <v>-0.8002061411521338</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.121063389514048</v>
+        <v>-1.121559805864957</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4564728593018625</v>
+        <v>-0.4564903798789535</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.03151003237721605</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7173980536281561</v>
+        <v>-0.7166461288613382</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.163471946362582</v>
+        <v>-1.163968362713491</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4595009990424072</v>
+        <v>-0.4593141128867709</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.02006757296196252</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5664378413167421</v>
+        <v>-0.5660669891016513</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.148532734296404</v>
+        <v>-1.148472872324677</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4396151440442307</v>
+        <v>-0.4395202409183216</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.01097524242504584</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.4289334322111427</v>
+        <v>-0.4274836044568703</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.172699450297125</v>
+        <v>-1.17274033164367</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4520226327207729</v>
+        <v>-0.4519905116627729</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.005503461566852873</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3257007319434431</v>
+        <v>-0.3244100494310798</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.253892724632558</v>
+        <v>-1.254199334731648</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3956195149208789</v>
+        <v>-0.3958078611246061</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.004413491545559914</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1374961528810391</v>
+        <v>-0.1353615625721306</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.310786418590997</v>
+        <v>-1.311155810757997</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3736530913931575</v>
+        <v>-0.3733698420635213</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.007641249269126663</v>
       </c>
       <c r="E81" t="n">
-        <v>0.02093950565582743</v>
+        <v>0.0230332146181905</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.302100592498181</v>
+        <v>-1.302719652888726</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3230522047065347</v>
+        <v>-0.3233894758155347</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.01523547095715691</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2325063142208615</v>
+        <v>0.2348248705892245</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.28999971392073</v>
+        <v>-1.290808580563093</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2874956535486352</v>
+        <v>-0.2876474985500897</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.02665868089394526</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4149188825066307</v>
+        <v>0.4174681264733573</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.231879579565927</v>
+        <v>-1.231902940335382</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2698071709272763</v>
+        <v>-0.2696801467433673</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.04112700266972148</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6217303144395752</v>
+        <v>0.6241583744147564</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.154351025938675</v>
+        <v>-1.154295544111221</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2449980337665557</v>
+        <v>-0.2453586656450102</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.05760370138861014</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7369441693412715</v>
+        <v>0.7391473819104527</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.066753980676517</v>
+        <v>-1.066418169615608</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2094327223201107</v>
+        <v>-0.2097232718902015</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.07487573828456183</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9621551273158474</v>
+        <v>0.964304318105665</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9999509403250803</v>
+        <v>-1.000394794944717</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1800711552119368</v>
+        <v>-0.180482888773573</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.09147258628563711</v>
       </c>
       <c r="E87" t="n">
-        <v>1.105908542250536</v>
+        <v>1.107840185874808</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9435317619961863</v>
+        <v>-0.9445318949384588</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1506687067572174</v>
+        <v>-0.1506103048335811</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1049681518087593</v>
       </c>
       <c r="E88" t="n">
-        <v>1.209157303047236</v>
+        <v>1.210753135610599</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8889157430595647</v>
+        <v>-0.8897085491729281</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1142667877546817</v>
+        <v>-0.1142083858310454</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1129815086273076</v>
       </c>
       <c r="E89" t="n">
-        <v>1.331304926332657</v>
+        <v>1.33264233038393</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7917364021767725</v>
+        <v>-0.7925861501656813</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.112503049660864</v>
+        <v>-0.1124285872082277</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1130513576592722</v>
       </c>
       <c r="E90" t="n">
-        <v>1.370378733341556</v>
+        <v>1.370748125508556</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6919406551150721</v>
+        <v>-0.692517374110981</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07795539173378238</v>
+        <v>-0.07818169918787322</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1034130812101144</v>
       </c>
       <c r="E91" t="n">
-        <v>1.414850338142544</v>
+        <v>1.415253311415635</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.585710476116737</v>
+        <v>-0.5868317930505548</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01745829908698044</v>
+        <v>-0.01721009091152596</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.08397711603895047</v>
       </c>
       <c r="E92" t="n">
-        <v>1.439160138856174</v>
+        <v>1.438920690969265</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.456945914883317</v>
+        <v>-0.4585855488894074</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.0198513179079798</v>
+        <v>-0.02043971728861601</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.05673196179323833</v>
       </c>
       <c r="E93" t="n">
-        <v>1.411017711903909</v>
+        <v>1.410484794350727</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3479007631657099</v>
+        <v>-0.349737503664073</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01356289078043603</v>
+        <v>-0.01383737982152687</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.02478960391294735</v>
       </c>
       <c r="E94" t="n">
-        <v>1.410353390022545</v>
+        <v>1.410643939592636</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2091377926057472</v>
+        <v>-0.210659162716474</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.01650196758743525</v>
+        <v>-0.01671805470488973</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.008942622641276406</v>
       </c>
       <c r="E95" t="n">
-        <v>1.336860409318565</v>
+        <v>1.336429695131747</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09385531544377811</v>
+        <v>-0.09450941698850521</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01923225751743451</v>
+        <v>-0.01905121155416183</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.04276068760230169</v>
       </c>
       <c r="E96" t="n">
-        <v>1.258149216737677</v>
+        <v>1.258414945490222</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03324625101409685</v>
+        <v>0.03234978148627891</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03369987405024881</v>
+        <v>-0.03389260039824876</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.07498085261041502</v>
       </c>
       <c r="E97" t="n">
-        <v>1.176205477683517</v>
+        <v>1.176409884416245</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1333252474054336</v>
+        <v>0.1327864896598883</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05265421836642554</v>
+        <v>-0.05261917721224373</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1035689494148195</v>
       </c>
       <c r="E98" t="n">
-        <v>1.078907872905362</v>
+        <v>1.078440657516271</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1942939355855991</v>
+        <v>0.193734737166781</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05794543264787867</v>
+        <v>-0.05767824384724237</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.126613332538528</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9410734929312167</v>
+        <v>0.9409596091801259</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1957277028108714</v>
+        <v>0.1952838481912351</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05268633942442553</v>
+        <v>-0.05240893028715288</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1447546089222363</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8466448826516966</v>
+        <v>0.8465149383716057</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2121021421504125</v>
+        <v>0.2116174061842308</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.04585769450324555</v>
+        <v>-0.04583725382997282</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1590177869676028</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6940742372960104</v>
+        <v>0.6941399394601012</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1988828667353251</v>
+        <v>0.1982973874508707</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.0504320251720625</v>
+        <v>-0.04979252410824449</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1718394131312444</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6335771446492083</v>
+        <v>0.6342633672519354</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2075774531166864</v>
+        <v>0.2068255283498684</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08239101783396301</v>
+        <v>-0.08196176369523585</v>
       </c>
     </row>
   </sheetData>
